--- a/db.xlsx
+++ b/db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\legal-navigator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C57BAFA-DC5E-4F8C-9ACA-5E570D920FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A098CD-38AB-4E99-82AB-4BCF46BC9D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79A5AC32-7922-4D02-872B-88AB7C754A19}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
